--- a/TestData/LanguagesTestData.xlsx
+++ b/TestData/LanguagesTestData.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SpanishSmoke\LanguagesAutomation\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="11340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="11340"/>
   </bookViews>
   <sheets>
     <sheet name="Portuguese" sheetId="1" r:id="rId1"/>
     <sheet name="Spanish" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>TC_ID</t>
   </si>
@@ -100,12 +95,21 @@
   </si>
   <si>
     <t>TC_02_03</t>
+  </si>
+  <si>
+    <t>fn_verifyAdmineConsoleSuccessfulLogin</t>
+  </si>
+  <si>
+    <t>fn_verifyAdditionOfAmenity</t>
+  </si>
+  <si>
+    <t>AmentitiesList_Title</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -486,7 +490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -494,17 +498,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.42578125" customWidth="1"/>
@@ -576,7 +580,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -586,6 +590,17 @@
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -596,7 +611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/TestData/LanguagesTestData.xlsx
+++ b/TestData/LanguagesTestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>TC_ID</t>
   </si>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t>AmentitiesList_Title</t>
+  </si>
+  <si>
+    <t>Message_Text1</t>
+  </si>
+  <si>
+    <t>-  Amenidade/serviço</t>
+  </si>
+  <si>
+    <t>Message_Text2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> salvo com sucesso.</t>
   </si>
 </sst>
 </file>
@@ -490,7 +502,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -501,7 +513,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,10 +522,10 @@
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" customWidth="1"/>
     <col min="10" max="10" width="23.85546875" customWidth="1"/>
     <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
@@ -600,6 +612,18 @@
       </c>
       <c r="D3" t="s">
         <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/LanguagesTestData.xlsx
+++ b/TestData/LanguagesTestData.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="11340"/>
   </bookViews>
   <sheets>
-    <sheet name="Portuguese" sheetId="1" r:id="rId1"/>
+    <sheet name="Admin_SZ_Portuguese" sheetId="1" r:id="rId1"/>
     <sheet name="Spanish" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>TC_ID</t>
   </si>
@@ -109,13 +109,28 @@
     <t>Message_Text1</t>
   </si>
   <si>
-    <t>-  Amenidade/serviço</t>
-  </si>
-  <si>
     <t>Message_Text2</t>
   </si>
   <si>
     <t xml:space="preserve"> salvo com sucesso.</t>
+  </si>
+  <si>
+    <t>fn_verifyAdditionOfRoom</t>
+  </si>
+  <si>
+    <t>RoomsList_Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> salvo com sucesso</t>
+  </si>
+  <si>
+    <t>Lista de quartos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Quarto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Amenidade/serviço </t>
   </si>
 </sst>
 </file>
@@ -502,7 +517,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -510,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,13 +632,36 @@
         <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/LanguagesTestData.xlsx
+++ b/TestData/LanguagesTestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t>TC_ID</t>
   </si>
@@ -131,6 +131,18 @@
   </si>
   <si>
     <t xml:space="preserve">- Amenidade/serviço </t>
+  </si>
+  <si>
+    <t>fn_verifySaveAndDuplicateRoomBtn</t>
+  </si>
+  <si>
+    <t>fn_verifyRoomTaxSelectionInRoomType</t>
+  </si>
+  <si>
+    <t>RoomTaxList_Title</t>
+  </si>
+  <si>
+    <t>Lista de taxas dos quartos</t>
   </si>
 </sst>
 </file>
@@ -517,7 +529,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -525,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,6 +674,34 @@
       </c>
       <c r="H4" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/LanguagesTestData.xlsx
+++ b/TestData/LanguagesTestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
   <si>
     <t>TC_ID</t>
   </si>
@@ -143,6 +143,51 @@
   </si>
   <si>
     <t>Lista de taxas dos quartos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> salva com sucesso</t>
+  </si>
+  <si>
+    <t>Status_src</t>
+  </si>
+  <si>
+    <t>on.GIF</t>
+  </si>
+  <si>
+    <t>RoomTypesList_Title</t>
+  </si>
+  <si>
+    <t>Message_Text3</t>
+  </si>
+  <si>
+    <t>Message_Text4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Taxa de quarto </t>
+  </si>
+  <si>
+    <t>Lista de tipos de quarto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Tipo de quarto (s) </t>
+  </si>
+  <si>
+    <t>fn_verifyAdditionOfAddOns</t>
+  </si>
+  <si>
+    <t>AddOnsList_Title</t>
+  </si>
+  <si>
+    <t>Lista de adições</t>
+  </si>
+  <si>
+    <t>fn_verifyAddAPackageWithInclusion</t>
+  </si>
+  <si>
+    <t>AddInclusion_Title</t>
+  </si>
+  <si>
+    <t>Adicionar inclusões</t>
   </si>
 </sst>
 </file>
@@ -529,7 +574,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -537,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,10 +600,12 @@
     <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" customWidth="1"/>
     <col min="10" max="10" width="23.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -702,6 +749,76 @@
       </c>
       <c r="D6" t="s">
         <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/LanguagesTestData.xlsx
+++ b/TestData/LanguagesTestData.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SpanishSmoke\LanguagesAutomation\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="11340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin_SZ_Portuguese" sheetId="1" r:id="rId1"/>
-    <sheet name="Spanish" sheetId="2" r:id="rId2"/>
+    <sheet name="Frontdesk_SZ_Portuguese" sheetId="3" r:id="rId2"/>
+    <sheet name="Spanish" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
   <si>
     <t>TC_ID</t>
   </si>
@@ -193,7 +199,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -574,18 +580,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,7 +833,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F49A5B-47DC-44AE-8ACA-FC732FBAFBD4}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/TestData/LanguagesTestData.xlsx
+++ b/TestData/LanguagesTestData.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="11340"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="14715" windowHeight="10200"/>
   </bookViews>
   <sheets>
     <sheet name="Admin_SZ_Portuguese" sheetId="1" r:id="rId1"/>
     <sheet name="Spanish" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="95">
   <si>
     <t>TC_ID</t>
   </si>
@@ -188,6 +189,123 @@
   </si>
   <si>
     <t>Adicionar inclusões</t>
+  </si>
+  <si>
+    <t>fn_verifyPkgAttachmentToFrontdesk</t>
+  </si>
+  <si>
+    <t>FrontdeskPackages_Title</t>
+  </si>
+  <si>
+    <t>Lista de Pacotes (Recepção)</t>
+  </si>
+  <si>
+    <t>AttachPackage_Title</t>
+  </si>
+  <si>
+    <t>Anexar pacote</t>
+  </si>
+  <si>
+    <t>AttachPackage_Msg</t>
+  </si>
+  <si>
+    <t>- Package(s) attached successfully</t>
+  </si>
+  <si>
+    <t>off.GIF</t>
+  </si>
+  <si>
+    <t>AddActivation_Link</t>
+  </si>
+  <si>
+    <t>Adicionar data de ativação</t>
+  </si>
+  <si>
+    <t>Activating the Package forever will remove all the other Activation dates.</t>
+  </si>
+  <si>
+    <t>Deseja continuar?</t>
+  </si>
+  <si>
+    <t>ActivatedForever_Text</t>
+  </si>
+  <si>
+    <t>Activated Forever</t>
+  </si>
+  <si>
+    <t>fn_verifyPkgAttachmentToWeb</t>
+  </si>
+  <si>
+    <t>WebPackages_Title</t>
+  </si>
+  <si>
+    <t>Lista de Pacotes (Internet)</t>
+  </si>
+  <si>
+    <t>fn_verifyPublishToGridAndSaveFrontdeskPkg</t>
+  </si>
+  <si>
+    <t>EditPackageDetailFD_Title</t>
+  </si>
+  <si>
+    <t>Edit Package Details (Recepção)</t>
+  </si>
+  <si>
+    <t>ToGrid_Msg1</t>
+  </si>
+  <si>
+    <t>Any changes made to the package will be saved automatically and redirect to the grid preview page.</t>
+  </si>
+  <si>
+    <t>ToGrid_Msg2</t>
+  </si>
+  <si>
+    <t>Would you like to proceed?</t>
+  </si>
+  <si>
+    <t>SaveMsg_Text1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Pacote </t>
+  </si>
+  <si>
+    <t>SaveMsg_Text2</t>
+  </si>
+  <si>
+    <t>SaveAsGrid_Msg1</t>
+  </si>
+  <si>
+    <t>This action will permanently publish this package to grid.</t>
+  </si>
+  <si>
+    <t>SaveAsGrid_Msg2</t>
+  </si>
+  <si>
+    <t>Are you sure to proceed?</t>
+  </si>
+  <si>
+    <t>fn_verifyPublishToGridAndSaveWebPkg</t>
+  </si>
+  <si>
+    <t>EditPackageDetailWeb_Title</t>
+  </si>
+  <si>
+    <t>Edit Package Details (Internet)</t>
+  </si>
+  <si>
+    <t>fn_verifySaveChangesInDefaultSettings</t>
+  </si>
+  <si>
+    <t>DefaultSettings_Title</t>
+  </si>
+  <si>
+    <t>Editar configuração padrão</t>
+  </si>
+  <si>
+    <t>SaveMsg_Text</t>
+  </si>
+  <si>
+    <t>- Configuração padrão salva com sucesso</t>
   </si>
 </sst>
 </file>
@@ -574,7 +692,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -582,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A2" sqref="A2:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,7 +782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -677,7 +795,7 @@
       <c r="F2" s="3"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -700,7 +818,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -723,7 +841,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -740,7 +858,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -787,7 +905,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -804,7 +922,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -819,6 +937,187 @@
       </c>
       <c r="F8" s="2" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>68</v>
+      </c>
+      <c r="R10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" t="s">
+        <v>84</v>
+      </c>
+      <c r="O11" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/LanguagesTestData.xlsx
+++ b/TestData/LanguagesTestData.xlsx
@@ -11,7 +11,6 @@
     <sheet name="Spanish" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -692,7 +691,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -703,7 +702,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,7 +781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -795,7 +794,7 @@
       <c r="F2" s="3"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -818,7 +817,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -841,7 +840,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -858,7 +857,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -905,7 +904,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -922,7 +921,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -939,7 +938,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -992,7 +991,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1045,7 +1044,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -1092,7 +1091,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -1103,7 +1102,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>90</v>
       </c>

--- a/TestData/LanguagesTestData.xlsx
+++ b/TestData/LanguagesTestData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
   <si>
     <t>TC_ID</t>
   </si>
@@ -194,6 +194,57 @@
   </si>
   <si>
     <t>Adicionar inclusões</t>
+  </si>
+  <si>
+    <t>fn_Login</t>
+  </si>
+  <si>
+    <t>ValidationMSG_TX</t>
+  </si>
+  <si>
+    <t>Outro usuário com o mesmo nome de usuário já está conectado ao sistema. Deseja continuar??</t>
+  </si>
+  <si>
+    <t>Default Counter (Abra)</t>
+  </si>
+  <si>
+    <t>Counter_DD</t>
+  </si>
+  <si>
+    <t>Admin_Title</t>
+  </si>
+  <si>
+    <t>Frontdesk_Title</t>
+  </si>
+  <si>
+    <t>Recepção</t>
+  </si>
+  <si>
+    <t>ReservationStatus_TX</t>
+  </si>
+  <si>
+    <t>RESERVE</t>
+  </si>
+  <si>
+    <t>fn_Make2RoomAnd2NightReservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nenhuma entrada encontrada : </t>
+  </si>
+  <si>
+    <t>NoEntryFound_TX</t>
+  </si>
+  <si>
+    <t>fn_Make1RoomReservationWithTravelAgentLink</t>
+  </si>
+  <si>
+    <t>fn_ClickAndVerifyRestaurantLink</t>
+  </si>
+  <si>
+    <t>Restaurant_Title</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
   </si>
 </sst>
 </file>
@@ -268,11 +319,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -834,25 +888,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F49A5B-47DC-44AE-8ACA-FC732FBAFBD4}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,9 +933,96 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/TestData/LanguagesTestData.xlsx
+++ b/TestData/LanguagesTestData.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SpanishSmoke\LanguagesAutomation\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="11715" windowHeight="4050" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Admin_SZ_Portuguese" sheetId="1" r:id="rId1"/>
     <sheet name="Frontdesk_SZ_Portuguese" sheetId="3" r:id="rId2"/>
-    <sheet name="Spanish" sheetId="2" r:id="rId3"/>
+    <sheet name="Admin_SZ_Spanish" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:F12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="90">
   <si>
     <t>TC_ID</t>
   </si>
@@ -82,9 +78,6 @@
     <t>Field_Value8</t>
   </si>
   <si>
-    <t>TC_01</t>
-  </si>
-  <si>
     <t>Adminstrator_Title</t>
   </si>
   <si>
@@ -97,12 +90,6 @@
     <t>Lista de amenidades</t>
   </si>
   <si>
-    <t>AmenitiesPage_Title</t>
-  </si>
-  <si>
-    <t>TC_02_03</t>
-  </si>
-  <si>
     <t>fn_verifyAdmineConsoleSuccessfulLogin</t>
   </si>
   <si>
@@ -245,12 +232,72 @@
   </si>
   <si>
     <t>Restaurant</t>
+  </si>
+  <si>
+    <t>Lista de Facilidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Servicio </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guardado con Éxito</t>
+  </si>
+  <si>
+    <t>Lista de Habitaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Habitación </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> guardada con éxito</t>
+  </si>
+  <si>
+    <t>Lista de Impuestos para las Habitaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Impuesto de Habitación </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> guardado con éxito</t>
+  </si>
+  <si>
+    <t>Lista de Tipos de Habitación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Tipo(s) de Habitación </t>
+  </si>
+  <si>
+    <t>Lista de Complementos</t>
+  </si>
+  <si>
+    <t>Agregar Inclusiones</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se encontraron resultados : </t>
+  </si>
+  <si>
+    <t>fn_verifyPkgAttachmentToFrontdesk</t>
+  </si>
+  <si>
+    <t>FrontdeskPackages_Title</t>
+  </si>
+  <si>
+    <t>AttachPackage_Title</t>
+  </si>
+  <si>
+    <t>AttachPackage_Msg</t>
+  </si>
+  <si>
+    <t>AddActivation_Link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -634,14 +681,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -726,159 +773,159 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
+      <c r="I6" t="s">
         <v>39</v>
       </c>
-      <c r="D6" t="s">
+      <c r="J6" t="s">
         <v>40</v>
       </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="K6" t="s">
         <v>41</v>
       </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" t="s">
         <v>42</v>
       </c>
-      <c r="J6" t="s">
+      <c r="N6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" t="s">
         <v>43</v>
       </c>
-      <c r="K6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" t="s">
-        <v>46</v>
-      </c>
       <c r="P6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -887,10 +934,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F49A5B-47DC-44AE-8ACA-FC732FBAFBD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -942,82 +989,82 @@
     </row>
     <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
         <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
         <v>61</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>62</v>
-      </c>
-      <c r="F3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
         <v>61</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>62</v>
       </c>
-      <c r="F4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
         <v>64</v>
-      </c>
-      <c r="H4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1027,18 +1074,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
@@ -1111,28 +1159,193 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/LanguagesTestData.xlsx
+++ b/TestData/LanguagesTestData.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="14715" windowHeight="10200"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="14715" windowHeight="10200" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Admin_SZ_Portuguese" sheetId="1" r:id="rId1"/>
-    <sheet name="Spanish" sheetId="2" r:id="rId2"/>
+    <sheet name="Admin_Portuguese" sheetId="1" r:id="rId1"/>
+    <sheet name="Admin_Spanish" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="127">
   <si>
     <t>TC_ID</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Field_Value8</t>
   </si>
   <si>
-    <t>TC_01</t>
-  </si>
-  <si>
     <t>Adminstrator_Title</t>
   </si>
   <si>
@@ -91,12 +88,6 @@
     <t>Lista de amenidades</t>
   </si>
   <si>
-    <t>AmenitiesPage_Title</t>
-  </si>
-  <si>
-    <t>TC_02_03</t>
-  </si>
-  <si>
     <t>fn_verifyAdmineConsoleSuccessfulLogin</t>
   </si>
   <si>
@@ -305,6 +296,111 @@
   </si>
   <si>
     <t>- Configuração padrão salva com sucesso</t>
+  </si>
+  <si>
+    <t>AttachPkg_Title</t>
+  </si>
+  <si>
+    <t>WebPkg_Title</t>
+  </si>
+  <si>
+    <t>CorpPkg_Title</t>
+  </si>
+  <si>
+    <t>Lista de Pacotes (Corporate)</t>
+  </si>
+  <si>
+    <t>TAPkg_Title</t>
+  </si>
+  <si>
+    <t>Lista de Pacotes (Travel Agent)</t>
+  </si>
+  <si>
+    <t>Field_Name</t>
+  </si>
+  <si>
+    <t>Field_Value9</t>
+  </si>
+  <si>
+    <t>Lista de Facilidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Servicio </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guardado con Éxito</t>
+  </si>
+  <si>
+    <t>Lista de Habitaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Habitación </t>
+  </si>
+  <si>
+    <t>Lista de Impuestos para las Habitaciones</t>
+  </si>
+  <si>
+    <t>Lista de Tipos de Habitación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Impuesto de Habitación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  guardado con éxito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Tipo(s) de Habitación </t>
+  </si>
+  <si>
+    <t>Lista de Complementos</t>
+  </si>
+  <si>
+    <t>Adjuntar Paquete</t>
+  </si>
+  <si>
+    <t>Lista de Paquetes (Web )</t>
+  </si>
+  <si>
+    <t>NoEntries_Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se encontraron resultados : </t>
+  </si>
+  <si>
+    <t>Agregar Inclusiones</t>
+  </si>
+  <si>
+    <t>Lista de Paquetes (Corporate)</t>
+  </si>
+  <si>
+    <t>Lista de Paquetes (Travel Agent)</t>
+  </si>
+  <si>
+    <t>Agregar fecha de Activación</t>
+  </si>
+  <si>
+    <t>AddActivationDate_Title</t>
+  </si>
+  <si>
+    <t>Activar el paquete eliminara por siempre  todas las otras fechas de activación .</t>
+  </si>
+  <si>
+    <t>Activado Siempre</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> guardada con éxito</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> guardado con éxito</t>
+  </si>
+  <si>
+    <t>Lista de Paquetes (Recepción )</t>
+  </si>
+  <si>
+    <t>¿Desea continuar?</t>
+  </si>
+  <si>
+    <t>Nenhuma entrada encontrada :</t>
   </si>
 </sst>
 </file>
@@ -351,7 +447,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -374,16 +470,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -691,7 +799,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -699,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,14 +826,17 @@
     <col min="9" max="9" width="21.42578125" customWidth="1"/>
     <col min="10" max="10" width="23.85546875" customWidth="1"/>
     <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="67.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -780,343 +891,385 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
         <v>39</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>50</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>51</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>52</v>
       </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="s">
+        <v>96</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>113</v>
+      </c>
+      <c r="P8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>53</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>54</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>55</v>
       </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E9" t="s">
         <v>56</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>57</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
         <v>58</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
         <v>60</v>
       </c>
-      <c r="G9" t="s">
+      <c r="K9" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="L9" t="s">
         <v>62</v>
       </c>
-      <c r="I9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" t="s">
         <v>63</v>
       </c>
-      <c r="K9" t="s">
+      <c r="O9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" t="s">
         <v>64</v>
       </c>
-      <c r="L9" t="s">
+      <c r="Q9" t="s">
         <v>65</v>
       </c>
-      <c r="M9" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="R9" t="s">
         <v>66</v>
       </c>
-      <c r="O9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="S9" t="s">
+        <v>119</v>
+      </c>
+      <c r="T9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>67</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="C10" t="s">
         <v>68</v>
       </c>
-      <c r="R9" t="s">
+      <c r="D10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>65</v>
+      </c>
+      <c r="R10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>70</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>71</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>72</v>
       </c>
-      <c r="E10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" t="s">
-        <v>65</v>
-      </c>
-      <c r="M10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" t="s">
-        <v>66</v>
-      </c>
-      <c r="O10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P10" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>68</v>
-      </c>
-      <c r="R10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="E11" t="s">
         <v>73</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
         <v>74</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G11" t="s">
         <v>75</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>76</v>
       </c>
-      <c r="F11" t="s">
+      <c r="I11" t="s">
         <v>77</v>
       </c>
-      <c r="G11" t="s">
+      <c r="J11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H11" t="s">
+      <c r="K11" t="s">
         <v>79</v>
       </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="N11" t="s">
         <v>81</v>
       </c>
-      <c r="K11" t="s">
+      <c r="O11" t="s">
         <v>82</v>
       </c>
-      <c r="L11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="P11" t="s">
         <v>83</v>
       </c>
-      <c r="N11" t="s">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>84</v>
       </c>
-      <c r="O11" t="s">
+      <c r="C12" t="s">
         <v>85</v>
       </c>
-      <c r="P11" t="s">
+      <c r="D12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>87</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>88</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="E13" t="s">
         <v>90</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="D13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1126,34 +1279,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="26.42578125" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1208,29 +1364,263 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>106</v>
+      </c>
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>116</v>
+      </c>
+      <c r="M8" t="s">
+        <v>96</v>
+      </c>
+      <c r="N8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O8" t="s">
+        <v>113</v>
+      </c>
+      <c r="P8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" t="s">
+        <v>118</v>
+      </c>
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" t="s">
+        <v>120</v>
+      </c>
+      <c r="O9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" t="s">
+        <v>121</v>
+      </c>
+      <c r="S9" t="s">
+        <v>119</v>
+      </c>
+      <c r="T9" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/LanguagesTestData.xlsx
+++ b/TestData/LanguagesTestData.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="11340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin_SZ_Portuguese" sheetId="1" r:id="rId1"/>
     <sheet name="Frontdesk_SZ_Portuguese" sheetId="3" r:id="rId2"/>
     <sheet name="Spanish" sheetId="2" r:id="rId3"/>
+    <sheet name="Spanish_Frontdesk" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="85">
   <si>
     <t>TC_ID</t>
   </si>
@@ -245,6 +246,42 @@
   </si>
   <si>
     <t>Restaurant</t>
+  </si>
+  <si>
+    <t>fn_VerifyCheckInButtonInQuickReservationFrom</t>
+  </si>
+  <si>
+    <t>Reserva de quarto Check-in</t>
+  </si>
+  <si>
+    <t>CheckInCard_Title</t>
+  </si>
+  <si>
+    <t>fn_SelectPackageinQuickReservationForm</t>
+  </si>
+  <si>
+    <t>AttachPackage_Title</t>
+  </si>
+  <si>
+    <t>Anexar pacote</t>
+  </si>
+  <si>
+    <t>FrontdeskListPackage_Title</t>
+  </si>
+  <si>
+    <t>Lista de Pacotes (Recepção)</t>
+  </si>
+  <si>
+    <t>Adicionar data de ativação</t>
+  </si>
+  <si>
+    <t>AddActivation_Title</t>
+  </si>
+  <si>
+    <t>fn_MadeReservationWithSingleLink</t>
+  </si>
+  <si>
+    <t>fn_MadeReservationWithGroupLink</t>
   </si>
 </sst>
 </file>
@@ -888,10 +925,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F49A5B-47DC-44AE-8ACA-FC732FBAFBD4}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection sqref="A1:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,12 +940,14 @@
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="27.42578125" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -939,8 +978,14 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -957,7 +1002,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -980,7 +1025,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -1009,7 +1054,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -1018,6 +1063,110 @@
       </c>
       <c r="D5" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1138,4 +1287,184 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587CC4CB-B795-4C3F-9742-F416A7DD4BC0}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/LanguagesTestData.xlsx
+++ b/TestData/LanguagesTestData.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="11715" windowHeight="4050" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="11715" windowHeight="4050" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Admin_SZ_Portuguese" sheetId="1" r:id="rId1"/>
+    <sheet name="Admin_Portuguese" sheetId="1" r:id="rId1"/>
     <sheet name="Frontdesk_SZ_Portuguese" sheetId="3" r:id="rId2"/>
-    <sheet name="Admin_SZ_Spanish" sheetId="2" r:id="rId3"/>
+    <sheet name="Admin_Spanish" sheetId="2" r:id="rId3"/>
+    <sheet name="Admin_German" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:F12"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="141">
   <si>
     <t>TC_ID</t>
   </si>
@@ -273,9 +273,6 @@
     <t>Agregar Inclusiones</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
     <t xml:space="preserve">No se encontraron resultados : </t>
   </si>
   <si>
@@ -292,6 +289,162 @@
   </si>
   <si>
     <t>AddActivation_Link</t>
+  </si>
+  <si>
+    <t>AttachPkg_Title</t>
+  </si>
+  <si>
+    <t>Anexar pacote</t>
+  </si>
+  <si>
+    <t>NoEntries_Text</t>
+  </si>
+  <si>
+    <t>CorpPkg_Title</t>
+  </si>
+  <si>
+    <t>TAPkg_Title</t>
+  </si>
+  <si>
+    <t>WebPkg_Title</t>
+  </si>
+  <si>
+    <t>Nenhuma entrada encontrada</t>
+  </si>
+  <si>
+    <t>Lista de Pacotes (Corporate)</t>
+  </si>
+  <si>
+    <t>Lista de agentes de viagens registrados</t>
+  </si>
+  <si>
+    <t>Lista de Pacotes (Internet)</t>
+  </si>
+  <si>
+    <t>AddActivationDate_Title</t>
+  </si>
+  <si>
+    <t>ActivatedForever_Text</t>
+  </si>
+  <si>
+    <t>Lista de Pacotes (Recepção)</t>
+  </si>
+  <si>
+    <t>off.GIF</t>
+  </si>
+  <si>
+    <t>Adicionar data de ativação</t>
+  </si>
+  <si>
+    <t>Activated Forever</t>
+  </si>
+  <si>
+    <t>Activating the Package forever will remove all the other Activation dates.</t>
+  </si>
+  <si>
+    <t>Deseja continuar?</t>
+  </si>
+  <si>
+    <t>- Package(s) attached successfully</t>
+  </si>
+  <si>
+    <t>Field_Name9</t>
+  </si>
+  <si>
+    <t>Field_Value9</t>
+  </si>
+  <si>
+    <t>Adjuntar Paquete</t>
+  </si>
+  <si>
+    <t>Lista de Paquetes (Web )</t>
+  </si>
+  <si>
+    <t>Lista de Paquetes (Corporate)</t>
+  </si>
+  <si>
+    <t>Lista de Agentes de Viajes Registrados</t>
+  </si>
+  <si>
+    <t>Agregar fecha de Activación</t>
+  </si>
+  <si>
+    <t>Activar el paquete eliminara por siempre  todas las otras fechas de activación .</t>
+  </si>
+  <si>
+    <t>¿Desea continuar?</t>
+  </si>
+  <si>
+    <t>Activado Siempre</t>
+  </si>
+  <si>
+    <t>Lista de Paquetes (Recepción )</t>
+  </si>
+  <si>
+    <t>Administratorkonsole</t>
+  </si>
+  <si>
+    <t>Liste Ausstattung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Ausstattung </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> erfolgreich gespeichert</t>
+  </si>
+  <si>
+    <t>Zimmerliste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Zimmer </t>
+  </si>
+  <si>
+    <t>Zimmer Taxe Liste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Zimmer MwSt </t>
+  </si>
+  <si>
+    <t>Zimmertyp Liste</t>
+  </si>
+  <si>
+    <t>- Zimmertyp(en)</t>
+  </si>
+  <si>
+    <t>Add-ons Liste</t>
+  </si>
+  <si>
+    <t>Extras hinzufügen</t>
+  </si>
+  <si>
+    <t>Paket anhängen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keine Einträge gefunden : </t>
+  </si>
+  <si>
+    <t>Liste Pakete (Corporate)</t>
+  </si>
+  <si>
+    <t>Liste von registrierten Reisebüros</t>
+  </si>
+  <si>
+    <t>Liste Pakete (Web)</t>
+  </si>
+  <si>
+    <t>Liste Pakete (Frontdesk)</t>
+  </si>
+  <si>
+    <t>Aktivierungsdatum hinzufügen</t>
+  </si>
+  <si>
+    <t>Paket für immer aktivieren wird alle andere Aktivierungsdaten entfernen.</t>
+  </si>
+  <si>
+    <t>Möchten Sie fortfahren?</t>
+  </si>
+  <si>
+    <t>Für immer aktiviert</t>
   </si>
 </sst>
 </file>
@@ -338,7 +491,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -361,12 +514,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -374,6 +538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -681,7 +846,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -689,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView topLeftCell="K2" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,16 +871,17 @@
     <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" customWidth="1"/>
+    <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -770,8 +936,14 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -784,7 +956,7 @@
       <c r="F2" s="3"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -807,7 +979,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -830,7 +1002,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -847,7 +1019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -894,7 +1066,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -911,7 +1083,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -926,6 +1098,95 @@
       </c>
       <c r="F8" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="s">
+        <v>93</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="s">
+        <v>100</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" t="s">
+        <v>106</v>
+      </c>
+      <c r="S9" t="s">
+        <v>87</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1075,10 +1336,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,23 +1348,25 @@
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="26.42578125" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="71.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1158,8 +1421,14 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1172,7 +1441,7 @@
       <c r="F2" s="3"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1195,7 +1464,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1218,7 +1487,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1235,7 +1504,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1282,7 +1551,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -1299,7 +1568,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1316,36 +1585,435 @@
         <v>40</v>
       </c>
       <c r="G8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
         <v>83</v>
       </c>
-      <c r="H8" t="s">
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" t="s">
+        <v>93</v>
+      </c>
+      <c r="N8" t="s">
+        <v>113</v>
+      </c>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
         <v>85</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" t="s">
         <v>86</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
         <v>87</v>
       </c>
-      <c r="G9" t="s">
-        <v>88</v>
+      <c r="H9" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="I9" t="s">
         <v>39</v>
       </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
       </c>
       <c r="M9" t="s">
         <v>25</v>
       </c>
+      <c r="N9" t="s">
+        <v>115</v>
+      </c>
       <c r="O9" t="s">
         <v>26</v>
+      </c>
+      <c r="P9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>99</v>
+      </c>
+      <c r="R9" t="s">
+        <v>114</v>
+      </c>
+      <c r="S9" t="s">
+        <v>100</v>
+      </c>
+      <c r="T9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="68.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>127</v>
+      </c>
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>133</v>
+      </c>
+      <c r="M8" t="s">
+        <v>93</v>
+      </c>
+      <c r="N8" t="s">
+        <v>134</v>
+      </c>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" t="s">
+        <v>137</v>
+      </c>
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" t="s">
+        <v>138</v>
+      </c>
+      <c r="O9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>99</v>
+      </c>
+      <c r="R9" t="s">
+        <v>137</v>
+      </c>
+      <c r="S9" t="s">
+        <v>100</v>
+      </c>
+      <c r="T9" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/LanguagesTestData.xlsx
+++ b/TestData/LanguagesTestData.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="14715" windowHeight="10200" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="11715" windowHeight="4050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Admin_Portuguese" sheetId="1" r:id="rId1"/>
-    <sheet name="Admin_Spanish" sheetId="2" r:id="rId2"/>
+    <sheet name="Frontdesk_SZ_Portuguese" sheetId="3" r:id="rId2"/>
+    <sheet name="Admin_Spanish" sheetId="2" r:id="rId3"/>
+    <sheet name="Admin_German" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="141">
   <si>
     <t>TC_ID</t>
   </si>
@@ -181,226 +183,268 @@
     <t>Adicionar inclusões</t>
   </si>
   <si>
+    <t>fn_Login</t>
+  </si>
+  <si>
+    <t>ValidationMSG_TX</t>
+  </si>
+  <si>
+    <t>Outro usuário com o mesmo nome de usuário já está conectado ao sistema. Deseja continuar??</t>
+  </si>
+  <si>
+    <t>Default Counter (Abra)</t>
+  </si>
+  <si>
+    <t>Counter_DD</t>
+  </si>
+  <si>
+    <t>Admin_Title</t>
+  </si>
+  <si>
+    <t>Frontdesk_Title</t>
+  </si>
+  <si>
+    <t>Recepção</t>
+  </si>
+  <si>
+    <t>ReservationStatus_TX</t>
+  </si>
+  <si>
+    <t>RESERVE</t>
+  </si>
+  <si>
+    <t>fn_Make2RoomAnd2NightReservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nenhuma entrada encontrada : </t>
+  </si>
+  <si>
+    <t>NoEntryFound_TX</t>
+  </si>
+  <si>
+    <t>fn_Make1RoomReservationWithTravelAgentLink</t>
+  </si>
+  <si>
+    <t>fn_ClickAndVerifyRestaurantLink</t>
+  </si>
+  <si>
+    <t>Restaurant_Title</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t>Lista de Facilidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Servicio </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guardado con Éxito</t>
+  </si>
+  <si>
+    <t>Lista de Habitaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Habitación </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> guardada con éxito</t>
+  </si>
+  <si>
+    <t>Lista de Impuestos para las Habitaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Impuesto de Habitación </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> guardado con éxito</t>
+  </si>
+  <si>
+    <t>Lista de Tipos de Habitación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Tipo(s) de Habitación </t>
+  </si>
+  <si>
+    <t>Lista de Complementos</t>
+  </si>
+  <si>
+    <t>Agregar Inclusiones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se encontraron resultados : </t>
+  </si>
+  <si>
     <t>fn_verifyPkgAttachmentToFrontdesk</t>
   </si>
   <si>
     <t>FrontdeskPackages_Title</t>
   </si>
   <si>
+    <t>AttachPackage_Title</t>
+  </si>
+  <si>
+    <t>AttachPackage_Msg</t>
+  </si>
+  <si>
+    <t>AddActivation_Link</t>
+  </si>
+  <si>
+    <t>AttachPkg_Title</t>
+  </si>
+  <si>
+    <t>Anexar pacote</t>
+  </si>
+  <si>
+    <t>NoEntries_Text</t>
+  </si>
+  <si>
+    <t>CorpPkg_Title</t>
+  </si>
+  <si>
+    <t>TAPkg_Title</t>
+  </si>
+  <si>
+    <t>WebPkg_Title</t>
+  </si>
+  <si>
+    <t>Nenhuma entrada encontrada</t>
+  </si>
+  <si>
+    <t>Lista de Pacotes (Corporate)</t>
+  </si>
+  <si>
+    <t>Lista de agentes de viagens registrados</t>
+  </si>
+  <si>
+    <t>Lista de Pacotes (Internet)</t>
+  </si>
+  <si>
+    <t>AddActivationDate_Title</t>
+  </si>
+  <si>
+    <t>ActivatedForever_Text</t>
+  </si>
+  <si>
     <t>Lista de Pacotes (Recepção)</t>
   </si>
   <si>
-    <t>AttachPackage_Title</t>
-  </si>
-  <si>
-    <t>Anexar pacote</t>
-  </si>
-  <si>
-    <t>AttachPackage_Msg</t>
+    <t>off.GIF</t>
+  </si>
+  <si>
+    <t>Adicionar data de ativação</t>
+  </si>
+  <si>
+    <t>Activated Forever</t>
+  </si>
+  <si>
+    <t>Activating the Package forever will remove all the other Activation dates.</t>
+  </si>
+  <si>
+    <t>Deseja continuar?</t>
   </si>
   <si>
     <t>- Package(s) attached successfully</t>
   </si>
   <si>
-    <t>off.GIF</t>
-  </si>
-  <si>
-    <t>AddActivation_Link</t>
-  </si>
-  <si>
-    <t>Adicionar data de ativação</t>
-  </si>
-  <si>
-    <t>Activating the Package forever will remove all the other Activation dates.</t>
-  </si>
-  <si>
-    <t>Deseja continuar?</t>
-  </si>
-  <si>
-    <t>ActivatedForever_Text</t>
-  </si>
-  <si>
-    <t>Activated Forever</t>
-  </si>
-  <si>
-    <t>fn_verifyPkgAttachmentToWeb</t>
-  </si>
-  <si>
-    <t>WebPackages_Title</t>
-  </si>
-  <si>
-    <t>Lista de Pacotes (Internet)</t>
-  </si>
-  <si>
-    <t>fn_verifyPublishToGridAndSaveFrontdeskPkg</t>
-  </si>
-  <si>
-    <t>EditPackageDetailFD_Title</t>
-  </si>
-  <si>
-    <t>Edit Package Details (Recepção)</t>
-  </si>
-  <si>
-    <t>ToGrid_Msg1</t>
-  </si>
-  <si>
-    <t>Any changes made to the package will be saved automatically and redirect to the grid preview page.</t>
-  </si>
-  <si>
-    <t>ToGrid_Msg2</t>
-  </si>
-  <si>
-    <t>Would you like to proceed?</t>
-  </si>
-  <si>
-    <t>SaveMsg_Text1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Pacote </t>
-  </si>
-  <si>
-    <t>SaveMsg_Text2</t>
-  </si>
-  <si>
-    <t>SaveAsGrid_Msg1</t>
-  </si>
-  <si>
-    <t>This action will permanently publish this package to grid.</t>
-  </si>
-  <si>
-    <t>SaveAsGrid_Msg2</t>
-  </si>
-  <si>
-    <t>Are you sure to proceed?</t>
-  </si>
-  <si>
-    <t>fn_verifyPublishToGridAndSaveWebPkg</t>
-  </si>
-  <si>
-    <t>EditPackageDetailWeb_Title</t>
-  </si>
-  <si>
-    <t>Edit Package Details (Internet)</t>
-  </si>
-  <si>
-    <t>fn_verifySaveChangesInDefaultSettings</t>
-  </si>
-  <si>
-    <t>DefaultSettings_Title</t>
-  </si>
-  <si>
-    <t>Editar configuração padrão</t>
-  </si>
-  <si>
-    <t>SaveMsg_Text</t>
-  </si>
-  <si>
-    <t>- Configuração padrão salva com sucesso</t>
-  </si>
-  <si>
-    <t>AttachPkg_Title</t>
-  </si>
-  <si>
-    <t>WebPkg_Title</t>
-  </si>
-  <si>
-    <t>CorpPkg_Title</t>
-  </si>
-  <si>
-    <t>Lista de Pacotes (Corporate)</t>
-  </si>
-  <si>
-    <t>TAPkg_Title</t>
-  </si>
-  <si>
-    <t>Lista de Pacotes (Travel Agent)</t>
-  </si>
-  <si>
-    <t>Field_Name</t>
+    <t>Field_Name9</t>
   </si>
   <si>
     <t>Field_Value9</t>
   </si>
   <si>
-    <t>Lista de Facilidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Servicio </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Guardado con Éxito</t>
-  </si>
-  <si>
-    <t>Lista de Habitaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Habitación </t>
-  </si>
-  <si>
-    <t>Lista de Impuestos para las Habitaciones</t>
-  </si>
-  <si>
-    <t>Lista de Tipos de Habitación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Impuesto de Habitación </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  guardado con éxito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Tipo(s) de Habitación </t>
-  </si>
-  <si>
-    <t>Lista de Complementos</t>
-  </si>
-  <si>
     <t>Adjuntar Paquete</t>
   </si>
   <si>
     <t>Lista de Paquetes (Web )</t>
   </si>
   <si>
-    <t>NoEntries_Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No se encontraron resultados : </t>
-  </si>
-  <si>
-    <t>Agregar Inclusiones</t>
-  </si>
-  <si>
     <t>Lista de Paquetes (Corporate)</t>
   </si>
   <si>
-    <t>Lista de Paquetes (Travel Agent)</t>
+    <t>Lista de Agentes de Viajes Registrados</t>
   </si>
   <si>
     <t>Agregar fecha de Activación</t>
   </si>
   <si>
-    <t>AddActivationDate_Title</t>
-  </si>
-  <si>
     <t>Activar el paquete eliminara por siempre  todas las otras fechas de activación .</t>
   </si>
   <si>
+    <t>¿Desea continuar?</t>
+  </si>
+  <si>
     <t>Activado Siempre</t>
   </si>
   <si>
-    <t xml:space="preserve"> guardada con éxito</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> guardado con éxito</t>
-  </si>
-  <si>
     <t>Lista de Paquetes (Recepción )</t>
   </si>
   <si>
-    <t>¿Desea continuar?</t>
-  </si>
-  <si>
-    <t>Nenhuma entrada encontrada :</t>
+    <t>Administratorkonsole</t>
+  </si>
+  <si>
+    <t>Liste Ausstattung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Ausstattung </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> erfolgreich gespeichert</t>
+  </si>
+  <si>
+    <t>Zimmerliste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Zimmer </t>
+  </si>
+  <si>
+    <t>Zimmer Taxe Liste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Zimmer MwSt </t>
+  </si>
+  <si>
+    <t>Zimmertyp Liste</t>
+  </si>
+  <si>
+    <t>- Zimmertyp(en)</t>
+  </si>
+  <si>
+    <t>Add-ons Liste</t>
+  </si>
+  <si>
+    <t>Extras hinzufügen</t>
+  </si>
+  <si>
+    <t>Paket anhängen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keine Einträge gefunden : </t>
+  </si>
+  <si>
+    <t>Liste Pakete (Corporate)</t>
+  </si>
+  <si>
+    <t>Liste von registrierten Reisebüros</t>
+  </si>
+  <si>
+    <t>Liste Pakete (Web)</t>
+  </si>
+  <si>
+    <t>Liste Pakete (Frontdesk)</t>
+  </si>
+  <si>
+    <t>Aktivierungsdatum hinzufügen</t>
+  </si>
+  <si>
+    <t>Paket für immer aktivieren wird alle andere Aktivierungsdaten entfernen.</t>
+  </si>
+  <si>
+    <t>Möchten Sie fortfahren?</t>
+  </si>
+  <si>
+    <t>Für immer aktiviert</t>
   </si>
 </sst>
 </file>
@@ -486,11 +530,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -807,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView topLeftCell="K2" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,16 +871,14 @@
     <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" customWidth="1"/>
+    <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -891,11 +936,11 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>99</v>
+      <c r="S1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1055,221 +1100,93 @@
         <v>40</v>
       </c>
       <c r="G8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
         <v>92</v>
       </c>
-      <c r="H8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="s">
         <v>93</v>
-      </c>
-      <c r="J8" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" t="s">
-        <v>94</v>
-      </c>
-      <c r="L8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M8" t="s">
-        <v>96</v>
       </c>
       <c r="N8" t="s">
         <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>102</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s">
+        <v>100</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
         <v>25</v>
       </c>
-      <c r="N9" t="s">
-        <v>63</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q9" t="s">
         <v>26</v>
       </c>
-      <c r="P9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>65</v>
-      </c>
       <c r="R9" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="S9" t="s">
-        <v>119</v>
-      </c>
-      <c r="T9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" t="s">
-        <v>63</v>
-      </c>
-      <c r="O10" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>65</v>
-      </c>
-      <c r="R10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K11" t="s">
-        <v>79</v>
-      </c>
-      <c r="L11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" t="s">
-        <v>80</v>
-      </c>
-      <c r="N11" t="s">
-        <v>81</v>
-      </c>
-      <c r="O11" t="s">
-        <v>82</v>
-      </c>
-      <c r="P11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
         <v>87</v>
       </c>
-      <c r="C13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>91</v>
+      <c r="T9" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1279,10 +1196,150 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,19 +1351,19 @@
     <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="71.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -1364,11 +1421,11 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>99</v>
+      <c r="S1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1392,19 +1449,19 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
         <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -1415,19 +1472,19 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s">
         <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -1438,13 +1495,13 @@
         <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
         <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1455,19 +1512,19 @@
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s">
         <v>39</v>
@@ -1479,19 +1536,19 @@
         <v>41</v>
       </c>
       <c r="L6" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s">
         <v>42</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
         <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1502,19 +1559,13 @@
         <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1525,7 +1576,7 @@
         <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
         <v>39</v>
@@ -1534,93 +1585,435 @@
         <v>40</v>
       </c>
       <c r="G8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" t="s">
         <v>92</v>
       </c>
-      <c r="H8" t="s">
+      <c r="L8" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" t="s">
+        <v>93</v>
+      </c>
+      <c r="N8" t="s">
+        <v>113</v>
+      </c>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" t="s">
         <v>111</v>
-      </c>
-      <c r="I8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8" t="s">
-        <v>112</v>
-      </c>
-      <c r="K8" t="s">
-        <v>94</v>
-      </c>
-      <c r="L8" t="s">
-        <v>116</v>
-      </c>
-      <c r="M8" t="s">
-        <v>96</v>
-      </c>
-      <c r="N8" t="s">
-        <v>117</v>
-      </c>
-      <c r="O8" t="s">
-        <v>113</v>
-      </c>
-      <c r="P8" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="I9" t="s">
         <v>39</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="L9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M9" t="s">
         <v>25</v>
       </c>
       <c r="N9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
         <v>26</v>
       </c>
       <c r="P9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>99</v>
+      </c>
+      <c r="R9" t="s">
+        <v>114</v>
+      </c>
+      <c r="S9" t="s">
+        <v>100</v>
+      </c>
+      <c r="T9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="68.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
         <v>125</v>
       </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>127</v>
+      </c>
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>133</v>
+      </c>
+      <c r="M8" t="s">
+        <v>93</v>
+      </c>
+      <c r="N8" t="s">
+        <v>134</v>
+      </c>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" t="s">
+        <v>137</v>
+      </c>
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" t="s">
+        <v>138</v>
+      </c>
+      <c r="O9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" t="s">
+        <v>139</v>
+      </c>
       <c r="Q9" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="R9" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="S9" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="T9" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/LanguagesTestData.xlsx
+++ b/TestData/LanguagesTestData.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SpanishSmoke\LanguagesAutomation\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="11715" windowHeight="4050" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="11715" windowHeight="4050" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin_SZ_Portuguese" sheetId="1" r:id="rId1"/>
     <sheet name="Frontdesk_SZ_Portuguese" sheetId="3" r:id="rId2"/>
     <sheet name="Admin_SZ_Spanish" sheetId="2" r:id="rId3"/>
+    <sheet name="Frontdesk_Spanish" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="108">
   <si>
     <t>TC_ID</t>
   </si>
@@ -292,12 +297,66 @@
   </si>
   <si>
     <t>AddActivation_Link</t>
+  </si>
+  <si>
+    <t>fn_MadeReservationWithSingleLink</t>
+  </si>
+  <si>
+    <t>fn_MadeReservationWithGroupLink</t>
+  </si>
+  <si>
+    <t>fn_VerifyCheckInButtonInQuickReservationFrom</t>
+  </si>
+  <si>
+    <t>fn_SelectPackageinQuickReservationForm</t>
+  </si>
+  <si>
+    <t>CheckInCard_Title</t>
+  </si>
+  <si>
+    <t>Reserva de quarto Check-in</t>
+  </si>
+  <si>
+    <t>Anexar pacote</t>
+  </si>
+  <si>
+    <t>FrontdeskListPackage_Title</t>
+  </si>
+  <si>
+    <t>Lista de Pacotes (Recepção)</t>
+  </si>
+  <si>
+    <t>Sample Restaurant</t>
+  </si>
+  <si>
+    <t>AddActivation_Title</t>
+  </si>
+  <si>
+    <t>Adicionar data de ativação</t>
+  </si>
+  <si>
+    <t>Adjuntar Paquete</t>
+  </si>
+  <si>
+    <t>Agregar fecha de Activación</t>
+  </si>
+  <si>
+    <t>Default Counter (Abrir)</t>
+  </si>
+  <si>
+    <t>Recepción</t>
+  </si>
+  <si>
+    <t>Lista de Paquetes (Recepción</t>
+  </si>
+  <si>
+    <t>Ingreso de la reserva</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -681,14 +740,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -934,28 +993,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="27.42578125" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -986,8 +1047,14 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1004,7 +1071,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -1027,7 +1094,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -1056,7 +1123,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -1065,6 +1132,110 @@
       </c>
       <c r="D5" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1074,10 +1245,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1159,7 +1330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1172,7 +1343,7 @@
       <c r="F2" s="3"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1195,7 +1366,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1218,7 +1389,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1235,7 +1406,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1282,7 +1453,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -1299,7 +1470,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1322,7 +1493,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -1346,6 +1517,255 @@
       </c>
       <c r="O9" t="s">
         <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28962286-90DB-462D-8604-4ACDC0858209}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/LanguagesTestData.xlsx
+++ b/TestData/LanguagesTestData.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="11715" windowHeight="4050" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="11715" windowHeight="4050"/>
   </bookViews>
   <sheets>
     <sheet name="Admin_Portuguese" sheetId="1" r:id="rId1"/>
     <sheet name="Frontdesk_SZ_Portuguese" sheetId="3" r:id="rId2"/>
     <sheet name="Admin_Spanish" sheetId="2" r:id="rId3"/>
     <sheet name="Admin_German" sheetId="4" r:id="rId4"/>
+    <sheet name="Admin_Thai" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="186">
   <si>
     <t>TC_ID</t>
   </si>
@@ -445,6 +446,141 @@
   </si>
   <si>
     <t>Für immer aktiviert</t>
+  </si>
+  <si>
+    <t>ผู้ดูแลระบบ</t>
+  </si>
+  <si>
+    <t>รายชื่อสิ่งอำนวยความสะดวก</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- สิ่งอำนวยความสะดวก </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> บันทึกเรียบร้อย</t>
+  </si>
+  <si>
+    <t>รายการห้องพัก</t>
+  </si>
+  <si>
+    <t>- ห้องพัก</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- ห้องพัก </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> บันทึกสำเร็จ</t>
+  </si>
+  <si>
+    <t>รายการภาษีห้องพัก</t>
+  </si>
+  <si>
+    <t>- ภาษีห้องพัก</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ได้ถูกบันทึกเรียบร้อยแล้ว</t>
+  </si>
+  <si>
+    <t>รายการประเภทของห้อง</t>
+  </si>
+  <si>
+    <t>- ประเภทห้อง(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> บันทึกเสร็จสมบูรณ์</t>
+  </si>
+  <si>
+    <t>รายการที่เพิ่มเข้าไป</t>
+  </si>
+  <si>
+    <t>เพิ่มการผนวก</t>
+  </si>
+  <si>
+    <t>บริการชุดแนบ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ไม่พบรายการที่ค้นหา : </t>
+  </si>
+  <si>
+    <t>รายการแพคเกจ (แผนกงานต้อนรับ)</t>
+  </si>
+  <si>
+    <t>เพิ่มวันที่เปิดดำเนินการ</t>
+  </si>
+  <si>
+    <t>การเปิดใช้งานบริการชุดตลอดไปจะลบทั้งหมดวันที่เปิดใช้งานอื่น ๆ</t>
+  </si>
+  <si>
+    <t>ท่านต้องการดำเนินการต่อหรือไม่?</t>
+  </si>
+  <si>
+    <t>เปิดใช้งานตลอดไป</t>
+  </si>
+  <si>
+    <t>รายการแพคเกจ (Travel Agent)</t>
+  </si>
+  <si>
+    <t>รายการแพคเกจ (เว็บ)</t>
+  </si>
+  <si>
+    <t>รายการแพคเกจ (Corporate)</t>
+  </si>
+  <si>
+    <t>fn_createWebReservAndVerifyRatesOnFD</t>
+  </si>
+  <si>
+    <t>CashCounter</t>
+  </si>
+  <si>
+    <t>Detalhes da estadia</t>
+  </si>
+  <si>
+    <t>WebSelectRoomPage_Header</t>
+  </si>
+  <si>
+    <t>WebReservHomePage_Header</t>
+  </si>
+  <si>
+    <t>Selecionar quartos/pacotes</t>
+  </si>
+  <si>
+    <t>WebAddMoreRoomPage_Header</t>
+  </si>
+  <si>
+    <t>Detalhe da reserva</t>
+  </si>
+  <si>
+    <t>WebConfrimReservPage_Header</t>
+  </si>
+  <si>
+    <t>Confirme reserva/pagamentos</t>
+  </si>
+  <si>
+    <t>WebConsole_Title</t>
+  </si>
+  <si>
+    <t>Web Reservation</t>
+  </si>
+  <si>
+    <t>AdminConsole_Title</t>
+  </si>
+  <si>
+    <t>PayType_Title</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>Field_Name10</t>
+  </si>
+  <si>
+    <t>Field_Value10</t>
+  </si>
+  <si>
+    <t>WebConfirmReservPrintPage_Header</t>
+  </si>
+  <si>
+    <t>Confirmação da reserva</t>
   </si>
 </sst>
 </file>
@@ -854,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView topLeftCell="K2" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,22 +1002,27 @@
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -942,8 +1083,14 @@
       <c r="T1" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -956,7 +1103,7 @@
       <c r="F2" s="3"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -979,7 +1126,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1002,7 +1149,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1019,7 +1166,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1066,7 +1213,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -1083,7 +1230,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1130,7 +1277,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -1187,6 +1334,71 @@
       </c>
       <c r="T9" s="2" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" t="s">
+        <v>170</v>
+      </c>
+      <c r="H10" t="s">
+        <v>172</v>
+      </c>
+      <c r="I10" t="s">
+        <v>173</v>
+      </c>
+      <c r="J10" t="s">
+        <v>174</v>
+      </c>
+      <c r="K10" t="s">
+        <v>175</v>
+      </c>
+      <c r="L10" t="s">
+        <v>176</v>
+      </c>
+      <c r="M10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" t="s">
+        <v>177</v>
+      </c>
+      <c r="P10" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>179</v>
+      </c>
+      <c r="R10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" t="s">
+        <v>180</v>
+      </c>
+      <c r="T10" t="s">
+        <v>181</v>
+      </c>
+      <c r="U10" t="s">
+        <v>184</v>
+      </c>
+      <c r="V10" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1683,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2019,4 +2231,346 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>152</v>
+      </c>
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>158</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>166</v>
+      </c>
+      <c r="M8" t="s">
+        <v>93</v>
+      </c>
+      <c r="N8" t="s">
+        <v>164</v>
+      </c>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" t="s">
+        <v>160</v>
+      </c>
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>99</v>
+      </c>
+      <c r="R9" t="s">
+        <v>160</v>
+      </c>
+      <c r="S9" t="s">
+        <v>100</v>
+      </c>
+      <c r="T9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/LanguagesTestData.xlsx
+++ b/TestData/LanguagesTestData.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SpanishSmoke\LanguagesAutomation\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="11715" windowHeight="4050"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="11715" windowHeight="4050" tabRatio="761" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin_Portuguese" sheetId="1" r:id="rId1"/>
-    <sheet name="Frontdesk_SZ_Portuguese" sheetId="3" r:id="rId2"/>
-    <sheet name="Admin_Spanish" sheetId="2" r:id="rId3"/>
-    <sheet name="Admin_German" sheetId="4" r:id="rId4"/>
-    <sheet name="Admin_Thai" sheetId="5" r:id="rId5"/>
+    <sheet name="Mobile" sheetId="6" r:id="rId2"/>
+    <sheet name="Frontdesk_SZ_Portuguese" sheetId="3" r:id="rId3"/>
+    <sheet name="Admin_Spanish" sheetId="2" r:id="rId4"/>
+    <sheet name="Admin_German" sheetId="4" r:id="rId5"/>
+    <sheet name="Admin_Thai" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="202">
   <si>
     <t>TC_ID</t>
   </si>
@@ -581,12 +587,60 @@
   </si>
   <si>
     <t>Confirmação da reserva</t>
+  </si>
+  <si>
+    <t>fn_Make2NightSingleReservation</t>
+  </si>
+  <si>
+    <t>Home_Title</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>SelectRoom_Title</t>
+  </si>
+  <si>
+    <t>Select Room</t>
+  </si>
+  <si>
+    <t>StayDetails_Title</t>
+  </si>
+  <si>
+    <t>Stay Details</t>
+  </si>
+  <si>
+    <t>SingleEdit_Title</t>
+  </si>
+  <si>
+    <t>Single Edit</t>
+  </si>
+  <si>
+    <t>RoomAssign_Title</t>
+  </si>
+  <si>
+    <t>Room Assign</t>
+  </si>
+  <si>
+    <t>GuestCheckIn_Title</t>
+  </si>
+  <si>
+    <t>Guest Checkin</t>
+  </si>
+  <si>
+    <t>CheckInCard_Title</t>
+  </si>
+  <si>
+    <t>Check-in Card</t>
+  </si>
+  <si>
+    <t>fn_Make2nightGroupReservation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -666,7 +720,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -675,6 +729,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -982,17 +1037,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
@@ -1407,7 +1462,184 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD08707-2F7B-4B63-BE31-A14370EFBAC5}">
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L2" t="s">
+        <v>196</v>
+      </c>
+      <c r="M2" t="s">
+        <v>197</v>
+      </c>
+      <c r="N2" t="s">
+        <v>198</v>
+      </c>
+      <c r="O2" t="s">
+        <v>199</v>
+      </c>
+      <c r="P2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I3" t="s">
+        <v>193</v>
+      </c>
+      <c r="J3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K3" t="s">
+        <v>195</v>
+      </c>
+      <c r="L3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M3" t="s">
+        <v>197</v>
+      </c>
+      <c r="N3" t="s">
+        <v>198</v>
+      </c>
+      <c r="O3" t="s">
+        <v>199</v>
+      </c>
+      <c r="P3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1546,8 +1778,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView topLeftCell="O1" workbookViewId="0">
@@ -1891,8 +2123,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2233,8 +2465,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
